--- a/기획서/프로토타입_이벤트 시스템 기획서_v.02.xlsx
+++ b/기획서/프로토타입_이벤트 시스템 기획서_v.02.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\GitMiniDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="8460"/>
   </bookViews>
   <sheets>
-    <sheet name="용어" sheetId="4" r:id="rId1"/>
+    <sheet name="용어 및 규칙" sheetId="4" r:id="rId1"/>
     <sheet name="이벤트 기획서" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -4510,7 +4510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
   <si>
     <t>앵그리곰 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4970,48 +4970,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ex) 20초당 1번 발생 -&gt; 20</t>
+  </si>
+  <si>
+    <t>해당 이벤트의 1회 발생 시 소요되는 시간을 기재한다. 단위는 초(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이벤트 발생 시 사라지는 곰의 개수를 기재한다. 단위는 마리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventFrequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearDisappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이벤트가 진행될 때 뜨는 이벤트 대사를 기재한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 대사가 뜰 때 사용하는 팝업 창 파일명을 기재한다 </t>
+  </si>
+  <si>
+    <t>팝업 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex) 20초당 1번 발생 -&gt; 20</t>
-  </si>
-  <si>
-    <t>해당 이벤트의 1회 발생 시 소요되는 시간을 기재한다. 단위는 초(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 이벤트 발생 시 사라지는 곰의 개수를 기재한다. 단위는 마리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventFrequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bearDisappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 이벤트가 진행될 때 뜨는 이벤트 대사를 기재한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 대사가 뜰 때 사용하는 팝업 창 파일명을 기재한다 </t>
-  </si>
-  <si>
-    <t>팝업 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup.png</t>
+    <t>발생 빈도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 지속 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 지속 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라지는 곰 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 대사 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5019,39 +5059,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발생 빈도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라지는 곰 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼 설명</t>
+    <t>animationChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션 변화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danceChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5059,30 +5079,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animationChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">애니메이션 변화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danceChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dance만 랜덤 재생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5103,117 +5099,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">행복 게이지가 16~25일 때 곰이 화나서 생산 시간이 2배로 늘어난다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 게이지가 1~15일 때 20초마다 랜덤으로 곰이 1마리 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포만감이 1~25일 때 행복 게이지가 10초마다 하락한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감이 90~99일 때 행복 게이지가 10초마다 상승한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 게이지가 100일 때 인테리어가 바뀌고 코인을 획득한다. 행복게이지는 중립 값 50으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감이 100일 때 먹이를 사용할 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포만감이 0일 때 코인을 생산 할 수 없다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 시스템 기획서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 기획서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대값으로 만족해야하는 행복 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값으로 만족해야하는 행복 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대값으로 만족해야하는 배고픔 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값으로 만족해야하는 배고픔 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 발생 시 획득하게 되는 코인 수량을 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 기본 규칙</t>
+  </si>
+  <si>
+    <t>1. 해당 이벤트 조건 만족 시에만 관련된 텍스트 내용과 팝업창을 띄운다.</t>
+  </si>
+  <si>
+    <t>2. 팝업창은 확인하기 버튼을 누르면 닫힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 이벤트 발생 순서대로 팝업창이 생성된다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 이벤트 동시 발생 시, 행복 게이지 관련 이벤트를 먼저 생성한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 포만감의 애니메이션과 행복 이벤트의 특수 모션 충돌 시, 행복의 특수 모션을 우선 출력한다. </t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 시스템 플로우 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">행복 게이지가 90일 때 곰들이 30초 간 단체로 춤을 춘다. 해당 시간 동안 코인 생산 시간이 빨라지고 생산량도 많아진다.  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">행복 게이지가 16~25일 때 곰이 화나서 생산 시간이 2배로 늘어난다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복 게이지가 1~15일 때 20초마다 랜덤으로 곰이 1마리 사라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포만감이 1~25일 때 행복 게이지가 10초마다 하락한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포만감이 90~99일 때 행복 게이지가 10초마다 상승한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복 게이지가 100일 때 인테리어가 바뀌고 코인을 획득한다. 행복게이지는 중립 값 50으로 돌아간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포만감이 100일 때 먹이를 사용할 수 없다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포만감이 0일 때 코인을 생산 할 수 없다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 시스템 기획서 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 기획서 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최대값으로 만족해야하는 행복 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소값으로 만족해야하는 행복 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최대값으로 만족해야하는 배고픔 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소값으로 만족해야하는 배고픔 게이지 수치를 기재한다. - 은 해당 사항 없음을 뜻한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 발생 시 획득하게 되는 코인 수량을 기재한다. - 은 해당 사항 없음을 뜻한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 기본 규칙</t>
-  </si>
-  <si>
-    <t>1. 해당 이벤트 조건 만족 시에만 관련된 텍스트 내용과 팝업창을 띄운다.</t>
-  </si>
-  <si>
-    <t>2. 팝업창은 확인하기 버튼을 누르면 닫힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 이벤트 발생 순서대로 팝업창이 생성된다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 이벤트 동시 발생 시, 행복 게이지 관련 이벤트를 먼저 생성한다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 포만감의 애니메이션과 행복 이벤트의 특수 모션 충돌 시, 행복의 특수 모션을 우선 출력한다. </t>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 시스템 플로우 </t>
+    <t>feverEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 관련 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 관련 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5221,7 +5237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5301,6 +5317,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5346,7 +5369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -5526,13 +5549,84 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5546,25 +5640,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5587,14 +5669,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5602,13 +5681,88 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5662,9 +5816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5698,16 +5849,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5725,6 +5870,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279310</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2326821" y="17036143"/>
+          <a:ext cx="9273632" cy="3918857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259006</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>279511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177143" y="21866678"/>
+          <a:ext cx="13117756" cy="4048690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5990,10 +6216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R49"/>
+  <dimension ref="C1:R80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:O7"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6001,887 +6227,1744 @@
     <col min="3" max="3" width="4.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="19.375" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="C2" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+    </row>
+    <row r="4" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
     </row>
     <row r="5" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="11"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="3:18" s="16" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="3:18" s="12" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="30"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="24"/>
       <c r="D7" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
     </row>
     <row r="8" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4">
+      <c r="C8" s="24"/>
+      <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="24"/>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="24"/>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
     </row>
     <row r="11" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="4">
+      <c r="C11" s="24"/>
+      <c r="D11" s="16">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4">
+      <c r="C12" s="24"/>
+      <c r="D12" s="16">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="F12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="4">
+      <c r="C13" s="24"/>
+      <c r="D13" s="16">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="F13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="4">
+      <c r="C14" s="24"/>
+      <c r="D14" s="16">
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="F14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
     </row>
     <row r="15" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="4">
+      <c r="C15" s="24"/>
+      <c r="D15" s="16">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
     </row>
     <row r="17" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="11"/>
-      <c r="D17" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
     </row>
     <row r="19" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
     </row>
     <row r="20" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="4">
+      <c r="C20" s="24"/>
+      <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="24"/>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="24"/>
+      <c r="D22" s="16">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="21" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="24"/>
+      <c r="D23" s="16">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="3:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="24"/>
+      <c r="D24" s="16">
+        <v>5</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27"/>
+    </row>
+    <row r="25" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="24"/>
+      <c r="D25" s="16">
+        <v>6</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="16" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="21" t="s">
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="24"/>
+      <c r="D26" s="16">
+        <v>7</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="27" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="D27" s="16">
+        <v>8</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
+    </row>
+    <row r="28" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="24"/>
+      <c r="D28" s="49">
+        <v>9</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="24"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+    </row>
+    <row r="30" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="24"/>
+      <c r="D30" s="49">
+        <v>10</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="27"/>
+    </row>
+    <row r="31" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="24"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
+    </row>
+    <row r="32" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="24"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
+    </row>
+    <row r="33" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="24"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
+    </row>
+    <row r="34" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="24"/>
+      <c r="D34" s="55">
+        <v>11</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="49" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27"/>
+    </row>
+    <row r="35" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="24"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
+    </row>
+    <row r="36" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="24"/>
+      <c r="D36" s="16">
+        <v>12</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="27"/>
+    </row>
+    <row r="37" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="24"/>
+      <c r="D37" s="16">
+        <v>13</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
+    </row>
+    <row r="38" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="24"/>
+      <c r="D38" s="16">
+        <v>14</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="G38" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="27"/>
+    </row>
+    <row r="39" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="24"/>
+      <c r="D39" s="16">
+        <v>15</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
+    </row>
+    <row r="40" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27"/>
+    </row>
+    <row r="41" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
+    </row>
+    <row r="42" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="32"/>
+      <c r="D42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="29"/>
+    </row>
+    <row r="43" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="24"/>
+      <c r="D43" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="4">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="4">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="29">
-        <v>9</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="31"/>
-    </row>
-    <row r="30" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="29">
-        <v>10</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="30"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="30"/>
-    </row>
-    <row r="32" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="30"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="30"/>
-    </row>
-    <row r="33" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="35">
-        <v>11</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="31"/>
-    </row>
-    <row r="36" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="4">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="21">
-        <v>13</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="21" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
+    </row>
+    <row r="44" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="24"/>
+      <c r="D44" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="27"/>
+    </row>
+    <row r="45" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="24"/>
+      <c r="D45" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
+    </row>
+    <row r="46" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="24"/>
+      <c r="D46" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="27"/>
+    </row>
+    <row r="47" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="24"/>
+      <c r="D47" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
+    </row>
+    <row r="48" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="24"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27"/>
+    </row>
+    <row r="49" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="28"/>
+      <c r="D49" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="38" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="21">
-        <v>14</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="21">
-        <v>15</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="24"/>
-      <c r="D42" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="11"/>
-      <c r="D49" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="29"/>
+    </row>
+    <row r="50" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
+    </row>
+    <row r="51" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
+    </row>
+    <row r="52" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="27"/>
+    </row>
+    <row r="53" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="27"/>
+    </row>
+    <row r="54" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="27"/>
+    </row>
+    <row r="55" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="27"/>
+    </row>
+    <row r="56" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="27"/>
+    </row>
+    <row r="57" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="27"/>
+    </row>
+    <row r="58" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27"/>
+    </row>
+    <row r="59" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+    </row>
+    <row r="60" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="27"/>
+    </row>
+    <row r="61" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="27"/>
+    </row>
+    <row r="62" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="27"/>
+    </row>
+    <row r="63" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="27"/>
+    </row>
+    <row r="64" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="27"/>
+    </row>
+    <row r="65" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="27"/>
+    </row>
+    <row r="66" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="27"/>
+    </row>
+    <row r="67" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="27"/>
+    </row>
+    <row r="68" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="27"/>
+    </row>
+    <row r="69" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="27"/>
+    </row>
+    <row r="70" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="27"/>
+    </row>
+    <row r="71" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="27"/>
+    </row>
+    <row r="72" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="27"/>
+    </row>
+    <row r="73" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="27"/>
+    </row>
+    <row r="74" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="27"/>
+    </row>
+    <row r="75" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="27"/>
+    </row>
+    <row r="76" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="27"/>
+    </row>
+    <row r="77" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="27"/>
+    </row>
+    <row r="78" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="27"/>
+    </row>
+    <row r="79" spans="3:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="27"/>
+    </row>
+    <row r="80" spans="3:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="36"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P34:P35"/>
+  <mergeCells count="31">
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H29:O29"/>
     <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="H30:O30"/>
     <mergeCell ref="H31:O31"/>
     <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G7:O7"/>
     <mergeCell ref="C2:R3"/>
     <mergeCell ref="H36:O36"/>
     <mergeCell ref="H38:O38"/>
@@ -6896,11 +7979,12 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F13:O13"/>
     <mergeCell ref="H24:O24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6908,8 +7992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6934,180 +8018,180 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11"/>
-      <c r="C2" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="57" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="57" t="s">
+      <c r="P4" s="74"/>
+      <c r="Q4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="58" t="s">
+      <c r="S4" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="57" t="s">
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:26" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="57" t="s">
+    <row r="5" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="57" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="21"/>
+    </row>
+    <row r="6" spans="2:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="T5" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="57"/>
-    </row>
-    <row r="6" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="8" t="s">
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7137,7 +8221,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="3">
         <v>0.5</v>
@@ -7146,31 +8230,31 @@
         <v>2</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="55"/>
       <c r="Q7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="T7" s="26" t="s">
+      <c r="S7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="28"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
       <c r="Z7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
@@ -7196,10 +8280,10 @@
         <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
@@ -7208,125 +8292,125 @@
         <v>106</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="55"/>
       <c r="Q8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="72">
+        <v>3</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1</v>
+      </c>
+      <c r="G9" s="55">
+        <v>15</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="2" t="s">
+      <c r="K9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="55" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="53">
-        <v>3</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="35">
+      <c r="O9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55">
+        <v>20</v>
+      </c>
+      <c r="R9" s="55">
         <v>1</v>
       </c>
-      <c r="G9" s="35">
-        <v>15</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35">
-        <v>20</v>
-      </c>
-      <c r="R9" s="35">
-        <v>1</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="54"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
@@ -7355,21 +8439,21 @@
         <v>106</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="55">
         <v>5</v>
       </c>
-      <c r="P11" s="35"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="3">
         <v>10</v>
       </c>
@@ -7377,18 +8461,18 @@
         <v>106</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
@@ -7407,20 +8491,20 @@
       <c r="G12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>108</v>
+      <c r="H12" s="3">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3">
+        <v>99</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>106</v>
@@ -7428,29 +8512,29 @@
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="55">
         <v>5</v>
       </c>
-      <c r="P12" s="35"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="3">
         <v>10</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="48"/>
       <c r="Z12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
@@ -7473,16 +8557,16 @@
         <v>106</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="3">
         <v>50</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>106</v>
@@ -7490,29 +8574,29 @@
       <c r="N13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="55">
         <v>50</v>
       </c>
-      <c r="P13" s="35"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="3" t="s">
         <v>106</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="48"/>
       <c r="Z13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
@@ -7534,43 +8618,43 @@
         <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="51"/>
+        <v>108</v>
+      </c>
+      <c r="O14" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="70"/>
       <c r="Q14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
@@ -7599,40 +8683,40 @@
         <v>106</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O15" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="51"/>
+      <c r="O15" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="70"/>
       <c r="Q15" s="3" t="s">
         <v>106</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="T15" s="26" t="s">
+      <c r="S15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="48"/>
       <c r="Z15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.3">
